--- a/data/trans_bre/P16A03-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A03-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>3.826076165189177</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4.050121149022536</v>
+        <v>4.050121149022534</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>1.307199489644295</v>
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.093835719944365</v>
+        <v>1.973853791551736</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.659902745996974</v>
+        <v>4.686158331364127</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.099006469601896</v>
+        <v>2.102773662386323</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.001441861405771</v>
+        <v>1.928945182893827</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.5397897894690817</v>
+        <v>0.4681791613042504</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>1.603873779214843</v>
+        <v>1.806600954475032</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9029284666256097</v>
+        <v>0.828335569131982</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.3451095459898023</v>
+        <v>0.328745340174792</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.534726608850896</v>
+        <v>5.653228285592391</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.312056099236818</v>
+        <v>8.194232047509569</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.621187044274885</v>
+        <v>5.633383726881537</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.92064241411919</v>
+        <v>6.020181793150958</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.617100352169341</v>
+        <v>2.609490558531638</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>7.995745894887398</v>
+        <v>8.348334677204875</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>5.255526431623341</v>
+        <v>5.586896345822452</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.967264526844351</v>
+        <v>2.088888308281756</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>2.198315653087453</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2.601648609738406</v>
+        <v>2.601648609738405</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>2.188750822283247</v>
@@ -749,7 +749,7 @@
         <v>1.882996578298228</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>1.404644799121205</v>
+        <v>1.404644799121204</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.035828908389328</v>
+        <v>1.916063832707866</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.202727574298833</v>
+        <v>2.117506754777195</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.219301866120569</v>
+        <v>1.260546074563433</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.64435167788197</v>
+        <v>1.648244062031324</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9930973304302593</v>
+        <v>0.927670177547856</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>1.4185064513719</v>
+        <v>1.412055309659141</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7366302133775695</v>
+        <v>0.7313132087709304</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.6506303916445092</v>
+        <v>0.7047190133076157</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.549644436817415</v>
+        <v>4.50001013460016</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.537082820690641</v>
+        <v>4.495934954590701</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.140400827436888</v>
+        <v>3.165673272340649</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.546652299127106</v>
+        <v>3.531801745563486</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>4.161790868025689</v>
+        <v>4.117034961718867</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.63576465548973</v>
+        <v>5.719090452411492</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>3.716158417971428</v>
+        <v>3.497557407981163</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.393040243325517</v>
+        <v>2.499177416761142</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.23117149089994</v>
+        <v>-2.234725479645998</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.763771196772996</v>
+        <v>1.631683162514093</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.538686410970372</v>
+        <v>1.553681868534097</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.372835122558018</v>
+        <v>1.445660298168325</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.4927670376079903</v>
+        <v>-0.4821785729236592</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2620863308434688</v>
+        <v>0.2209242003134332</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7128852990755237</v>
+        <v>0.5667407865799082</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.3371728098653892</v>
+        <v>0.500790614041278</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.719464839923766</v>
+        <v>2.695206845767672</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.936647837296523</v>
+        <v>6.938691272216974</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.800261043139329</v>
+        <v>5.515692650723947</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.739342371939289</v>
+        <v>4.793551254709671</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.216075431648606</v>
+        <v>1.30523795692403</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>10.0063472697389</v>
+        <v>9.76747348108797</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>10.83580254725375</v>
+        <v>10.04948430663873</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>4.735509973999201</v>
+        <v>4.834056180665883</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.211126767615859</v>
+        <v>2.173102469565743</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.832135536585673</v>
+        <v>3.750774285417618</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.137314544302813</v>
+        <v>2.199913792854822</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.360414282676291</v>
+        <v>2.362940552945455</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8377779439290916</v>
+        <v>0.8438751673625086</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2.208025950117047</v>
+        <v>2.10995410236387</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1.38677628045783</v>
+        <v>1.43590144942965</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.8939774251986384</v>
+        <v>0.8922432834454325</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.06033163925753</v>
+        <v>3.878063272834015</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.672448664938947</v>
+        <v>5.635313510958486</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.743546220631967</v>
+        <v>3.737535370761193</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.919887481078162</v>
+        <v>3.947262441044011</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.241371513236181</v>
+        <v>2.100665002654981</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>5.382417768183054</v>
+        <v>5.339386064127814</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>3.820357239021892</v>
+        <v>3.918146658046111</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.085363722309468</v>
+        <v>2.200155017867304</v>
       </c>
     </row>
     <row r="16">
